--- a/src/templates/mcc_template.xlsx
+++ b/src/templates/mcc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devan/Workspace/technogen/eloader/src/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F145531-8A6A-B447-A245-7FB56922A716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CAC56E-D51A-AB4A-A29D-72A9140B2C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{990CD17D-0310-F146-B32B-AF5F2832BA06}"/>
   </bookViews>
@@ -1218,6 +1218,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1245,21 +1287,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1270,36 +1300,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2365,8 +2365,8 @@
   </sheetPr>
   <dimension ref="A1:CH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="55" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:B92"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="120" zoomScaleNormal="55" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2444,21 +2444,21 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="118" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="121"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
@@ -2497,21 +2497,21 @@
       <c r="A2" s="10"/>
       <c r="E2"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="103" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="106"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="107"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -2550,21 +2550,21 @@
       <c r="A3" s="10"/>
       <c r="E3"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="103" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="106"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="107"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
@@ -2603,21 +2603,21 @@
       <c r="A4" s="10"/>
       <c r="E4"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="103" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="106"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="107"/>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -2656,21 +2656,21 @@
       <c r="A5" s="10"/>
       <c r="E5"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="103" t="s">
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="106"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="107"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
@@ -2712,21 +2712,21 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="108" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="111"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="121"/>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
@@ -2777,9 +2777,9 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="96"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="110"/>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:81" s="23" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3497,10 +3497,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="72"/>
-      <c r="J20" s="73">
-        <f>J19*J18</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="73"/>
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
       <c r="M20" s="68"/>
@@ -3550,10 +3547,7 @@
         <v>41</v>
       </c>
       <c r="I21" s="83"/>
-      <c r="J21" s="84">
-        <f>J20+J15</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="84"/>
       <c r="K21" s="86"/>
       <c r="L21" s="85"/>
       <c r="M21" s="85"/>
@@ -3972,13 +3966,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G1:O3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="G4:O6"/>
     <mergeCell ref="P4:Q4"/>
@@ -3987,6 +3974,13 @@
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
+    <mergeCell ref="G1:O3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H14 C10:F14 J10:J14">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
